--- a/Report_Folder/Report_1.xlsx
+++ b/Report_Folder/Report_1.xlsx
@@ -428,16 +428,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>6.571428571428571</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Report_Folder/Report_1.xlsx
+++ b/Report_Folder/Report_1.xlsx
@@ -14,21 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>experienceable ratio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Total [n]</t>
+  </si>
+  <si>
+    <t>Funktion erlebbar [n]</t>
+  </si>
+  <si>
+    <t>Funktion erlebbar [%]</t>
   </si>
   <si>
     <t>min</t>
   </si>
   <si>
-    <t>average</t>
+    <t>Schnitt</t>
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>MIB Resets</t>
+  </si>
+  <si>
+    <t>Hauptkontexte erreicht</t>
+  </si>
+  <si>
+    <t>demnach nicht erreichte Hauptkontexte</t>
+  </si>
+  <si>
+    <t>davon Klangkontext</t>
+  </si>
+  <si>
+    <t>davon Phonekontext</t>
+  </si>
+  <si>
+    <t>davon Multimedia kontext</t>
+  </si>
+  <si>
+    <t>davon Car Kontext</t>
+  </si>
+  <si>
+    <t>davon App Connect Context</t>
+  </si>
+  <si>
+    <t>davon Navigations Kontext</t>
+  </si>
+  <si>
+    <t>davon Setup kontext</t>
+  </si>
+  <si>
+    <t>VIN im Fahrzeugkontext</t>
+  </si>
+  <si>
+    <t>Legal Kontext erreichbar</t>
+  </si>
+  <si>
+    <t>Legal Kontext lädt Info vom Backend</t>
+  </si>
+  <si>
+    <t>Shop Kontext erreichbar</t>
+  </si>
+  <si>
+    <t>Apps im Shop verfügbar</t>
+  </si>
+  <si>
+    <t>Audio nach Aufstart hoerbar (USB-Stick)</t>
+  </si>
+  <si>
+    <t>Bild Player sichtbar (USB-Stick)</t>
+  </si>
+  <si>
+    <t>Audio nach Aufstart hoerbar (USB-iOS)</t>
+  </si>
+  <si>
+    <t>Bild Player sichtbar (USB-iOS)</t>
+  </si>
+  <si>
+    <t>Audio nach Aufstart hoerbar (USB-Android)</t>
+  </si>
+  <si>
+    <t>Bild Player sichtbar (USB-Android)</t>
   </si>
   <si>
     <t>First result info</t>
@@ -398,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -422,57 +488,165 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>89</v>
       </c>
-      <c r="E3">
+      <c r="F30">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G30">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H30">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H32">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
     </row>

--- a/Report_Folder/Report_1.xlsx
+++ b/Report_Folder/Report_1.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Funktion erlebbar nach [s] nach Aufstart</t>
+  </si>
+  <si>
+    <t>MIB Resets</t>
+  </si>
   <si>
     <t>Total [n]</t>
   </si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>MIB Resets</t>
   </si>
   <si>
     <t>Hauptkontexte erreicht</t>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,73 +475,100 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -547,33 +577,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -582,8 +612,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -592,8 +622,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -601,52 +631,57 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>28</v>
       </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
       <c r="D32">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
         <v>1</v>
       </c>
     </row>

--- a/Report_Folder/Report_1.xlsx
+++ b/Report_Folder/Report_1.xlsx
@@ -14,30 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Funktion erlebbar nach [s] nach Aufstart</t>
   </si>
   <si>
+    <t>Total [n]</t>
+  </si>
+  <si>
+    <t>Funktion erlebbar [n]</t>
+  </si>
+  <si>
+    <t>Funktion erlebbar [%]</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Schnitt</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>MIB Resets</t>
-  </si>
-  <si>
-    <t>Total [n]</t>
-  </si>
-  <si>
-    <t>Funktion erlebbar [n]</t>
-  </si>
-  <si>
-    <t>Funktion erlebbar [%]</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>Schnitt</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t>Hauptkontexte erreicht</t>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,202 +486,182 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B31">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D31">
         <v>89</v>
       </c>
-      <c r="F32">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="G31">
         <v>6</v>
       </c>
-      <c r="H32">
+      <c r="H31">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="D34">
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="F34">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G34">
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="H34">
+      <c r="H33">
         <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
